--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="6"/>
